--- a/biology/Botanique/Leptochloa/Leptochloa.xlsx
+++ b/biology/Botanique/Leptochloa/Leptochloa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptochloa est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, à répartition pantropicale à tempérée chaude qui comprend une trentaine d'espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Leptochloa, dérive de deux racines grecques, ληπτος (leptos), signifiant  « fin, ténu », et χλοα (chloa), signifiant « herbe », en référence à l'inflorescence[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Leptochloa, dérive de deux racines grecques, ληπτος (leptos), signifiant  « fin, ténu », et χλοα (chloa), signifiant « herbe », en référence à l'inflorescence,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des espèces et sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2022)[4] :
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2022) :
 Leptochloa anisopoda (B.L.Rob.) P.M.Peterson (2015)
 Leptochloa aquatica Scribn. &amp; Merr. (1901)
 Leptochloa asthenes (Roem. &amp; Schult.) C.E.Hubb. (1941)
@@ -579,8 +598,43 @@
 Leptochloa tectoneticola (Backer) Jansen ex Veldkamp (1971)
 Leptochloa virgata (L.) P.Beauv. (1812)
 Leptochloa viscida (Scribn.) Beal (1896)
-Synonymes
-Selon BioLib                    (31 mai 2022)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leptochloa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptochloa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (31 mai 2022) :
 Baldomiria Herter
 Diachroa Nutt.
 Diplachne P.Beauv.
